--- a/Casos de prueba/testing exploratorio.xlsx
+++ b/Casos de prueba/testing exploratorio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2BF386-6735-4C75-812E-2CCED763D35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E7F64-AEFD-446D-8D8F-D8F1E7A0DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{504BFDD2-5DB0-47EF-8A49-2185FC688FDE}"/>
   </bookViews>
@@ -35,6 +35,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+  <si>
+    <t>Testin exploratorio - Sesion 1</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Posibles escenarios/Posibles riesgo</t>
+  </si>
+  <si>
+    <t>Variaciones</t>
+  </si>
+  <si>
+    <t>Tecnicas a utilizar</t>
+  </si>
+  <si>
+    <t>Buscar un producto deseado</t>
+  </si>
+  <si>
+    <t>encontrar el producto/ no encontraarlo/ que falle la buszqueda/ que muestre otro producto</t>
+  </si>
+  <si>
+    <t>producto ingresado con nombre erroneo / imprecision de busqueda</t>
+  </si>
+  <si>
+    <t>transicion de estado</t>
+  </si>
+  <si>
+    <t>Falla en la barra de búsqueda (search), al ingresar el nombre del producto deseado, nos devuelve como resultado la pagina de inicio donde ya nos encontrábamos.</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Testin exploratorio - Sesion 2</t>
+  </si>
+  <si>
+    <t>Cambiar informacion</t>
+  </si>
+  <si>
+    <t>cambiar info/ posible error al guardar</t>
+  </si>
+  <si>
+    <t>Al cambiar la informacion deseada, se intenta guardar el cambio. Lo que la pagina nos permite, pero nos sigue mostrando la misma ventana. No vuelve al perfil.</t>
+  </si>
+  <si>
+    <t>Testin exploratorio - Sesion 3</t>
+  </si>
+  <si>
+    <t>eliminar varios productos del carrito de compra de una misma vez.</t>
+  </si>
+  <si>
+    <t>eliminar validamente el producto/ eliminar varios productos/ eliminar todos los productor</t>
+  </si>
+  <si>
+    <t>eliminar vun producto, eliminar uuno o ninguno</t>
+  </si>
+  <si>
+    <t>trancision de estado</t>
+  </si>
+  <si>
+    <t>Al tocar el boton de eliminar producto, directamente se elimina, pero te vuelve a mandar a pagina de inicio. No permitiendote seguir modificando el carritol.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,15 +114,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -62,12 +148,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +654,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BFF86-AE67-4EB5-AC9B-20DD1FFB75F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F5:J5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Casos de prueba/testing exploratorio.xlsx
+++ b/Casos de prueba/testing exploratorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00E7F64-AEFD-446D-8D8F-D8F1E7A0DF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB51C6-CC84-4947-85B1-A5468C0EA265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{504BFDD2-5DB0-47EF-8A49-2185FC688FDE}"/>
   </bookViews>
@@ -98,7 +98,7 @@
     <t>trancision de estado</t>
   </si>
   <si>
-    <t>Al tocar el boton de eliminar producto, directamente se elimina, pero te vuelve a mandar a pagina de inicio. No permitiendote seguir modificando el carritol.</t>
+    <t>Al tocar el boton de eliminar producto, directamente se elimina, pero te vuelve a mandar a pagina de inicio. No permitiendote seguir modificando el carrito.</t>
   </si>
 </sst>
 </file>
@@ -286,31 +286,31 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,25 +319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BFF86-AE67-4EB5-AC9B-20DD1FFB75F2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F23" sqref="F23:J23"/>
     </sheetView>
   </sheetViews>
@@ -666,82 +666,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -761,80 +761,80 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -854,82 +854,82 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="12" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="15"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -949,25 +949,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:J6"/>
@@ -982,6 +963,25 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/testing exploratorio.xlsx
+++ b/Casos de prueba/testing exploratorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDB51C6-CC84-4947-85B1-A5468C0EA265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487E66C5-5B2E-4875-BA40-CF1D4E0F56AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{504BFDD2-5DB0-47EF-8A49-2185FC688FDE}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
-    <t>Testin exploratorio - Sesion 1</t>
-  </si>
-  <si>
     <t>Objetivo</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Notas</t>
   </si>
   <si>
-    <t>Testin exploratorio - Sesion 2</t>
-  </si>
-  <si>
     <t>Cambiar informacion</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Al cambiar la informacion deseada, se intenta guardar el cambio. Lo que la pagina nos permite, pero nos sigue mostrando la misma ventana. No vuelve al perfil.</t>
   </si>
   <si>
-    <t>Testin exploratorio - Sesion 3</t>
-  </si>
-  <si>
     <t>eliminar varios productos del carrito de compra de una misma vez.</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>Al tocar el boton de eliminar producto, directamente se elimina, pero te vuelve a mandar a pagina de inicio. No permitiendote seguir modificando el carrito.</t>
+  </si>
+  <si>
+    <t>Testing exploratorio - Sesion 1</t>
+  </si>
+  <si>
+    <t>Testing exploratorio - Sesion 2</t>
+  </si>
+  <si>
+    <t>Testing exploratorio - Sesion 3</t>
   </si>
 </sst>
 </file>
@@ -286,31 +286,13 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,13 +301,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -334,10 +313,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BFF86-AE67-4EB5-AC9B-20DD1FFB75F2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,289 +666,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:J6"/>
@@ -963,25 +982,6 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
